--- a/Pedidos/DataExcel/Inventario.xlsx
+++ b/Pedidos/DataExcel/Inventario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Idioma</t>
   </si>
@@ -46,13 +46,7 @@
     <t>aeHFOx8jV/A=</t>
   </si>
   <si>
-    <t>2663-909-005</t>
-  </si>
-  <si>
     <t>1200-660-0001</t>
-  </si>
-  <si>
-    <t>2663-101-455</t>
   </si>
   <si>
     <t>Producido</t>
@@ -413,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,71 +450,19 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E2">
-        <v>312</v>
+        <v>580</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>265</v>
-      </c>
-      <c r="E3">
-        <v>580</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
         <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>266</v>
-      </c>
-      <c r="E4">
-        <v>582</v>
-      </c>
-      <c r="F4">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Pedidos/DataExcel/Inventario.xlsx
+++ b/Pedidos/DataExcel/Inventario.xlsx
@@ -46,7 +46,7 @@
     <t>aeHFOx8jV/A=</t>
   </si>
   <si>
-    <t>1200-660-0001</t>
+    <t>PV-002</t>
   </si>
   <si>
     <t>Producido</t>
@@ -450,10 +450,10 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E2">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F2">
         <v>20</v>

--- a/Pedidos/DataExcel/Inventario.xlsx
+++ b/Pedidos/DataExcel/Inventario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Idioma</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>PV-002</t>
+  </si>
+  <si>
+    <t>2663-101-455</t>
   </si>
   <si>
     <t>Producido</t>
@@ -407,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,13 +459,39 @@
         <v>572</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>276</v>
+      </c>
+      <c r="E3">
+        <v>582</v>
+      </c>
+      <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
